--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.22437366492818</v>
+        <v>130.6725935008411</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.6584331680605</v>
+        <v>178.7920072957336</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0931370903073</v>
+        <v>161.7283490556371</v>
       </c>
       <c r="AD2" t="n">
-        <v>96224.37366492818</v>
+        <v>130672.5935008411</v>
       </c>
       <c r="AE2" t="n">
-        <v>131658.4331680605</v>
+        <v>178792.0072957336</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.669098388548457e-06</v>
+        <v>5.289608579037525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>119093.1370903073</v>
+        <v>161728.3490556371</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.31539183405896</v>
+        <v>129.7636116699719</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.4147241256177</v>
+        <v>177.5482982532908</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.9681258933182</v>
+        <v>160.603337858648</v>
       </c>
       <c r="AD3" t="n">
-        <v>95315.39183405896</v>
+        <v>129763.6116699719</v>
       </c>
       <c r="AE3" t="n">
-        <v>130414.7241256177</v>
+        <v>177548.2982532908</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.761227322206663e-06</v>
+        <v>5.422427584212477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>117968.1258933182</v>
+        <v>160603.337858648</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.52604481019422</v>
+        <v>125.4424808760655</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2840194182908</v>
+        <v>171.6359364662348</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.3769130036673</v>
+        <v>155.2552435824949</v>
       </c>
       <c r="AD2" t="n">
-        <v>83526.04481019422</v>
+        <v>125442.4808760655</v>
       </c>
       <c r="AE2" t="n">
-        <v>114284.0194182908</v>
+        <v>171635.9364662348</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.934255798337786e-06</v>
+        <v>5.759602486183086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103376.9130036673</v>
+        <v>155255.2435824949</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.00470597464198</v>
+        <v>116.1592017661726</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.3071888574138</v>
+        <v>158.9341444387159</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.2069939910572</v>
+        <v>143.7656927590012</v>
       </c>
       <c r="AD2" t="n">
-        <v>85004.70597464198</v>
+        <v>116159.2017661726</v>
       </c>
       <c r="AE2" t="n">
-        <v>116307.1888574138</v>
+        <v>158934.1444387159</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.105393653074093e-06</v>
+        <v>6.351550722011755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>105206.9939910572</v>
+        <v>143765.6927590012</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.32204803273963</v>
+        <v>119.322658733697</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.4778784952178</v>
+        <v>163.2625258235522</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.0750774599209</v>
+        <v>147.6809794993916</v>
       </c>
       <c r="AD2" t="n">
-        <v>87322.04803273964</v>
+        <v>119322.658733697</v>
       </c>
       <c r="AE2" t="n">
-        <v>119477.8784952178</v>
+        <v>163262.5258235522</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.12038469995134e-06</v>
+        <v>6.227112544686567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>108075.077459921</v>
+        <v>147680.9794993916</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.45157493384271</v>
+        <v>121.686910990958</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.1280793831733</v>
+        <v>166.4974000653833</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.1860311052386</v>
+        <v>150.6071218837579</v>
       </c>
       <c r="AD2" t="n">
-        <v>91451.57493384271</v>
+        <v>121686.910990958</v>
       </c>
       <c r="AE2" t="n">
-        <v>125128.0793831733</v>
+        <v>166497.4000653833</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.947218904930999e-06</v>
+        <v>6.238532074496442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>113186.0311052386</v>
+        <v>150607.1218837579</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.03578383195399</v>
+        <v>126.8472630956942</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.295663887932</v>
+        <v>173.5580214737475</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.1467443870878</v>
+        <v>156.9938874945544</v>
       </c>
       <c r="AD2" t="n">
-        <v>93035.78383195399</v>
+        <v>126847.2630956942</v>
       </c>
       <c r="AE2" t="n">
-        <v>127295.663887932</v>
+        <v>173558.0214737474</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.869481304539385e-06</v>
+        <v>5.641263739075674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>115146.7443870878</v>
+        <v>156993.8874945544</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.86275594484464</v>
+        <v>128.0395658500631</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.3224312655661</v>
+        <v>175.1893827029593</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.4572729132413</v>
+        <v>158.4695538976806</v>
       </c>
       <c r="AD2" t="n">
-        <v>90862.75594484464</v>
+        <v>128039.5658500631</v>
       </c>
       <c r="AE2" t="n">
-        <v>124322.4312655661</v>
+        <v>175189.3827029593</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.79657713030579e-06</v>
+        <v>6.083008369902025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>112457.2729132413</v>
+        <v>158469.5538976806</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.65214019658103</v>
+        <v>122.4997401384516</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.6660133901952</v>
+        <v>167.6095487644747</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.9589412350982</v>
+        <v>151.6131286719188</v>
       </c>
       <c r="AD2" t="n">
-        <v>89652.14019658104</v>
+        <v>122499.7401384516</v>
       </c>
       <c r="AE2" t="n">
-        <v>122666.0133901952</v>
+        <v>167609.5487644747</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048178624227654e-06</v>
+        <v>6.010910490949378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>110958.9412350982</v>
+        <v>151613.1286719189</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.37014640707761</v>
+        <v>124.7189195476434</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.0166652804803</v>
+        <v>170.6459279354152</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.0852502081358</v>
+        <v>154.3597200763707</v>
       </c>
       <c r="AD2" t="n">
-        <v>91370.14640707761</v>
+        <v>124718.9195476434</v>
       </c>
       <c r="AE2" t="n">
-        <v>125016.6652804803</v>
+        <v>170645.9279354152</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.960680219092217e-06</v>
+        <v>5.823952440450851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>113085.2502081358</v>
+        <v>154359.7200763707</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.71385439151815</v>
+        <v>128.9565838788138</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.5916740587747</v>
+        <v>176.4440872258755</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.2236265696965</v>
+        <v>159.604511181919</v>
       </c>
       <c r="AD2" t="n">
-        <v>94713.85439151815</v>
+        <v>128956.5838788138</v>
       </c>
       <c r="AE2" t="n">
-        <v>129591.6740587747</v>
+        <v>176444.0872258755</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.777083735179819e-06</v>
+        <v>5.46458090343138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.111979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>117223.6265696965</v>
+        <v>159604.511181919</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.49472030264296</v>
+        <v>128.7374497899386</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.2918451308622</v>
+        <v>176.1442582979629</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.9524128938513</v>
+        <v>159.3332975060738</v>
       </c>
       <c r="AD3" t="n">
-        <v>94494.72030264296</v>
+        <v>128737.4497899386</v>
       </c>
       <c r="AE3" t="n">
-        <v>129291.8451308622</v>
+        <v>176144.2582979629</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.807129120484112e-06</v>
+        <v>5.508049740841801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>116952.4128938513</v>
+        <v>159333.2975060738</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.36719271699397</v>
+        <v>120.6651783037687</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.9078915607431</v>
+        <v>165.0994203271067</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.368612085509</v>
+        <v>149.3425633696251</v>
       </c>
       <c r="AD2" t="n">
-        <v>88367.19271699397</v>
+        <v>120665.1783037687</v>
       </c>
       <c r="AE2" t="n">
-        <v>120907.8915607431</v>
+        <v>165099.4203271068</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.068638251622932e-06</v>
+        <v>6.109811462535654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>109368.612085509</v>
+        <v>149342.5633696251</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.72542282281979</v>
+        <v>117.0729394451205</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2933054448735</v>
+        <v>160.1843606423132</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.0989969954334</v>
+        <v>144.8965900828171</v>
       </c>
       <c r="AD2" t="n">
-        <v>85725.42282281979</v>
+        <v>117072.9394451205</v>
       </c>
       <c r="AE2" t="n">
-        <v>117293.3054448735</v>
+        <v>160184.3606423132</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.129622284783676e-06</v>
+        <v>6.333794753396492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>106098.9969954334</v>
+        <v>144896.5900828171</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.18630594450717</v>
+        <v>122.4422655403921</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.1874178309228</v>
+        <v>167.5309094838094</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.1940923397256</v>
+        <v>151.5419946138292</v>
       </c>
       <c r="AD2" t="n">
-        <v>84186.30594450717</v>
+        <v>122442.2655403921</v>
       </c>
       <c r="AE2" t="n">
-        <v>115187.4178309228</v>
+        <v>167530.9094838094</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.066413876794237e-06</v>
+        <v>6.353691470990796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>104194.0923397256</v>
+        <v>151541.9946138292</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.8584847737069</v>
+        <v>142.317355078081</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.8402490140702</v>
+        <v>194.7248838163287</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.0168989327728</v>
+        <v>176.1406142030443</v>
       </c>
       <c r="AD2" t="n">
-        <v>105858.4847737069</v>
+        <v>142317.355078081</v>
       </c>
       <c r="AE2" t="n">
-        <v>144840.2490140702</v>
+        <v>194724.8838163287</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.477342004833071e-06</v>
+        <v>5.666941271887346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.02864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>131016.8989327728</v>
+        <v>176140.6142030443</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.5530013392453</v>
+        <v>123.6565325501091</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.8986113487765</v>
+        <v>169.192323176183</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.073901774475</v>
+        <v>153.044845315212</v>
       </c>
       <c r="AD2" t="n">
-        <v>90553.0013392453</v>
+        <v>123656.5325501091</v>
       </c>
       <c r="AE2" t="n">
-        <v>123898.6113487765</v>
+        <v>169192.323176183</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99896362332866e-06</v>
+        <v>5.907992096073241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>112073.901774475</v>
+        <v>153044.845315212</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.48820012553863</v>
+        <v>127.5188801423441</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.9146798200124</v>
+        <v>174.4769575466263</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.7066823074049</v>
+        <v>157.8251215983729</v>
       </c>
       <c r="AD2" t="n">
-        <v>93488.20012553863</v>
+        <v>127518.8801423441</v>
       </c>
       <c r="AE2" t="n">
-        <v>127914.6798200124</v>
+        <v>174476.9575466263</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.858747837989635e-06</v>
+        <v>5.603554049453225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>115706.6823074049</v>
+        <v>157825.1215983729</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6931897949909</v>
+        <v>171.502837586818</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.5059910020624</v>
+        <v>234.6577485573787</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.6148929134978</v>
+        <v>212.2623423793488</v>
       </c>
       <c r="AD2" t="n">
-        <v>121693.1897949909</v>
+        <v>171502.837586818</v>
       </c>
       <c r="AE2" t="n">
-        <v>166505.9910020624</v>
+        <v>234657.7485573787</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.895097760017917e-06</v>
+        <v>4.825955478799412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>150614.8929134978</v>
+        <v>212262.3423793488</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.31402016942874</v>
+        <v>117.9989327266712</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.0986503015857</v>
+        <v>161.4513455020706</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.8274808693298</v>
+        <v>146.0426556857841</v>
       </c>
       <c r="AD2" t="n">
-        <v>86314.02016942874</v>
+        <v>117998.9327266712</v>
       </c>
       <c r="AE2" t="n">
-        <v>118098.6503015857</v>
+        <v>161451.3455020706</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.157559243144494e-06</v>
+        <v>6.327416942342457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>106827.4808693298</v>
+        <v>146042.6556857841</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.20866952420923</v>
+        <v>120.8690935802213</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.7450401997398</v>
+        <v>165.3784262044562</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.27112759123602</v>
+        <v>149.5949413176277</v>
       </c>
       <c r="AD2" t="n">
-        <v>80208.66952420922</v>
+        <v>120869.0935802213</v>
       </c>
       <c r="AE2" t="n">
-        <v>109745.0401997398</v>
+        <v>165378.4262044562</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.124818023832753e-06</v>
+        <v>6.157984938671938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99271.12759123603</v>
+        <v>149594.9413176277</v>
       </c>
     </row>
   </sheetData>
